--- a/src/main/resources/validate/nutrition/success/nutrition_valid.xlsx
+++ b/src/main/resources/validate/nutrition/success/nutrition_valid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiseungmin/Desktop/project/mom/src/main/resources/validate/nutrition/success/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A2A26A-D317-554F-9E41-8BEA71CC1186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2813D0DF-AA2E-4146-8AE3-4737BF8482F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{DECE7B6D-615A-074B-BBAD-556715FCBC55}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>itemId</t>
   </si>
@@ -98,6 +98,141 @@
   </si>
   <si>
     <t>오메가-3는 태아의 눈과 신경계 발달에 필수적이며, 엄마의 면역력 강화와 산후우울증 예방에도 도움을 줍니다.</t>
+  </si>
+  <si>
+    <t>sub_item_1_id</t>
+  </si>
+  <si>
+    <t>sub_item_title1</t>
+  </si>
+  <si>
+    <t>sub_item_content1</t>
+  </si>
+  <si>
+    <t>sub_item_2_id</t>
+  </si>
+  <si>
+    <t>sub_item_title2</t>
+  </si>
+  <si>
+    <t>sub_item_content2</t>
+  </si>
+  <si>
+    <t>sub_item_3_id</t>
+  </si>
+  <si>
+    <t>sub_item_title3</t>
+  </si>
+  <si>
+    <t>sub_item_content3</t>
+  </si>
+  <si>
+    <t>qna_item_1_id</t>
+  </si>
+  <si>
+    <t>qna_item_question1</t>
+  </si>
+  <si>
+    <t>qna_item_answer1</t>
+  </si>
+  <si>
+    <t>qna_item_2_id</t>
+  </si>
+  <si>
+    <t>qna_item_question2</t>
+  </si>
+  <si>
+    <t>왜 필요한가요?</t>
+  </si>
+  <si>
+    <t>엽산은 비타민 B군에 속하는 영양소로 태아의 초기 신경관 형성에 필수적입니다. 특히 임신 초기 부족 시 신경관결손증과 같은 심각한 기형이 발생할 위험이 있으므로, 임신 준비부터 초기 임신 기간 동안 충분히 섭취해야 모체와 태아의 건강을 지킬 수 있습니다.</t>
+  </si>
+  <si>
+    <t>부작용이 있을 수 있어요!</t>
+  </si>
+  <si>
+    <t>엽산은 수용성 비타민이라 과도하게 섭취한 경우 대부분 소변을 통해 배출되지만, 너무 많은 양을 지속적으로 섭취할 경우 다른 비타민 B군과의 균형에 영향을 줄 수 있으므로, 권장량을 초과하지 않는 것이 좋습니다. 개개인의 건강 상태에 따라 부작용이 다를 수 있으니 전문가와 상담하는 것이 안전합니다.</t>
+  </si>
+  <si>
+    <t>이렇게 드세요!</t>
+  </si>
+  <si>
+    <t>단태아이의 경우 하루 0.4mg(400μg)의 섭취를 권장하며, 다태아나 거대아이의 경우는 그보다 많은 양의 엽산을 섭취하는 것이 필요합니다. 임신 2~3개월 전부터 충분히 섭취하여 태아 신경관 형성에 문제가 없도록 준비하는 것이 중요하며, 식품이나 보충제를 통해 꾸준히 섭취하되, 개인 상황에 맞춰 의사와 상담하시길 권장드립니다.</t>
+  </si>
+  <si>
+    <t>질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임신 중 모체의 혈액량은 크게 증가하여 빈혈 예방과 태아의 건강한 발달을 위해 충분한 철분 섭취가 필수입니다. 철분은 헤모글로빈 생성에 관여해 산소 전달을 도와주며, 모체와 태아 모두의 에너지 공급 및 면역 기능 유지에 중요한 역할을 합니다.</t>
+  </si>
+  <si>
+    <t>철분제를 임신 초기에 복용하면 메스꺼움, 구토, 위장 장애 등이 발생할 수 있으므로 주의가 필요합니다. 위장이 민감한 임산부는 특히 과도한 철분 섭취 시 소화불량이나 위경련 등을 경험할 수 있으며, 잘못된 복용 시 위장에 부담을 줄 수 있습니다.</t>
+  </si>
+  <si>
+    <t>임신부에게는 하루 30~60mg 정도의 철분제를 권장하며, 특히 임신 중기부터 복용을 시작하는 것이 좋습니다. 위장에 부담을 줄이기 위해 식후 2시간 이후에 복용하는 것이 가장 효과적이며, 복용 전 반드시 의료 전문가와 상담하여 개인의 상태에 맞는 용량을 확인하시는 것이 중요합니다.</t>
+  </si>
+  <si>
+    <t>칼슘은 태아의 뼈 및 치아 형성, 신경과 근육 기능 발달에 중요한 역할을 하며, 모체에서는 골다공증과 임신성 고혈압 예방에 도움을 줍니다. 임신 중 충분한 칼슘 섭취는 태아와 산모 모두의 건강을 지원하는데 필수적입니다.</t>
+  </si>
+  <si>
+    <t>칼슘 보충제를 과다 섭취하거나 제형에 따라서는 변비나 입덧 증상이 악화될 수 있습니다. 특히 임신 중인 경우 이러한 부작용은 생활의 불편함을 초래할 수 있으므로 주의가 필요합니다.</t>
+  </si>
+  <si>
+    <t>하루에 700mg의 칼슘 섭취가 권장되며, 우유, 치즈, 요거트, 미역, 김, 깻잎 등의 식품을 통한 섭취로 자연스럽게 영양을 보완하는 것이 좋습니다. 만약 보충제가 필요할 경우에는 전문가와 상담하여 안전하고 적절한 방법으로 섭취하시길 바랍니다.</t>
+  </si>
+  <si>
+    <t>비타민 D는 모체가 칼슘을 효과적으로 흡수하게 도와 태아의 뼈와 치아 형성에 큰 역할을 합니다. 또한, 충분한 비타민 D 섭취는 출생 후 구루병, 골감소증 등의 위험을 낮추고, 임신부의 면역 체계 강화에도 기여하여 건강한 임신 유지를 지원합니다.</t>
+  </si>
+  <si>
+    <t>너무 많은 비타민 D를 섭취하게 되면 혈중 칼슘 농도가 지나치게 높아져 신장결석, 신장 기능 장애, 소화불량 등의 문제가 발생할 수 있습니다. 그러므로 정해진 용량을 초과하지 않도록 주의가 필요하며, 개인의 건강 상태를 고려해 복용해야 합니다.</t>
+  </si>
+  <si>
+    <t>임신부는 최신 연구 결과를 바탕으로 하루 4000IU 이상의 비타민 D 복용이 권장되나, 개개인의 영양 상태에 따라 차이가 있을 수 있으므로 종합 비타민제와 별도로 추가 보충제를 고려할 경우 반드시 전문가와 상담 후 복용량을 결정하는 것이 좋습니다.</t>
+  </si>
+  <si>
+    <t>비타민 C는 콜라겐 합성에 필수적이며, 이는 피부와 혈관, 뼈 등 여러 조직의 건강을 유지하는 데 도움이 됩니다. 또한 강력한 항산화 작용으로 세포 손상을 예방하고, 철의 흡수를 도와 빈혈 예방에도 기여하며, 면역 기능 및 호르몬과 기타 생체조절 물질의 생합성에 관여해 임신 중 특히 중요한 영양소입니다.</t>
+  </si>
+  <si>
+    <t>비타민 C는 수용성 비타민이어서 과도하게 섭취한 경우에도 몸에서 배출되지만, 매우 많은 양을 지속적으로 섭취하면 위장 장애, 설사, 또는 신장 결석 위험이 증가할 수 있으니 주의가 필요합니다.</t>
+  </si>
+  <si>
+    <t>성인 여성은 하루에 약 100mg, 임신부는 이에 추가로 10mg 정도의 비타민 C 섭취가 권장됩니다. 주로 신선한 과일과 채소를 통해 섭취하실 수 있으며, 보충제 복용을 고려하실 경우 전문가와 상담하여 개인 맞춤 섭취량을 결정하는 것이 좋습니다.</t>
+  </si>
+  <si>
+    <t>비타민 A는 태아의 폐 형성과 전반적인 성장에 중요한 역할을 합니다. 임신 중 충분한 비타민 A 섭취는 태아의 정상적인 기관 발달을 돕고, 부족 시 저체중아 출산 등 건강 위험이 증가할 수 있으므로 모체와 태아 건강을 위해 필요한 영양소입니다.</t>
+  </si>
+  <si>
+    <t>비타민 A는 임신 중 과다 섭취 시 태아 기형을 유발할 위험이 있어 주의해야 합니다. 특히 보충제를 통해 과량 섭취하는 경우 위험성이 커질 수 있으므로, 정해진 권장량을 넘지 않도록 조심하는 것이 중요합니다.</t>
+  </si>
+  <si>
+    <t>임신부의 경우 일반 성인 여성의 권장 섭취량인 650 μg RAE에 추가로 70 μg RAE를 섭취하는 것이 권장됩니다. 가능한 한 식품을 통해 균형 잡힌 섭취를 하는 것이 좋으며, 보충제를 고려할 경우에는 반드시 전문가와 상담 후 복용해야 합니다.</t>
+  </si>
+  <si>
+    <t>유산균은 우리 몸속의 좋은 균들을 늘려 장내 환경을 건강하게 유지합니다. 이는 소화 기능 향상과 배변 활동을 원활하게 하는 데 도움을 주며, 특히 질염과 같이 감염성 질환 예방에도 효과적입니다. 임신 중이나 산후에도 장내 균형이 중요하기 때문에, 유산균 섭취는 전반적인 건강 유지에 큰 역할을 합니다.</t>
+  </si>
+  <si>
+    <t>일반적으로 유산균은 안전한 영양소로 여겨지지만, 과다 섭취할 경우 일시적인 복부 팽만감이나 가스, 설사 등의 증상이 나타날 수 있습니다. 개인의 장 상태에 따라 미세한 불편감이 있을 수 있으므로, 처음 시작할 때는 적은 양으로 시작해 점차 늘려가는 것이 좋습니다.</t>
+  </si>
+  <si>
+    <t>유산균은 보통 식사 전이나 식사와 함께 복용하는 것이 좋습니다. 제품에 따라 정해진 1일 섭취 권장량을 확인하고 꾸준히 섭취하는 것이 효과적이며, 임신 중 또는 산후라면 전문가와 상담 후 본인에게 맞는 용량을 결정하는 것이 중요합니다.</t>
+  </si>
+  <si>
+    <t>오메가-3는 태아의 눈과 두뇌를 구성하는 데 필요한 중요한 영양소입니다. 임신 중 섭취 시 태아의 시력과 신경계 발달을 도와 건강한 성장에 기여하며, 동시에 엄마의 면역력을 강화하고 산후우울증을 예방하는 효과도 기대할 수 있어요.</t>
+  </si>
+  <si>
+    <t>일반적으로 오메가-3는 임신 중에 안전하게 섭취할 수 있는 영양소로 알려져 있지만, 과다 섭취할 경우 혈액 응고에 영향을 미칠 수 있거나 소화계에 불편함을 줄 수 있으므로 정해진 권장량을 지나치지 않는 것이 중요합니다.</t>
+  </si>
+  <si>
+    <t>오메가-3는 임신 기간 동안 꾸준히 섭취하는 것이 좋습니다. 보충제를 통해 드실 경우, 제품 라벨에 기재된 권장 섭취량을 따르거나, 개인의 건강 상태와 식단에 따라 전문가와 상담 후 적절한 양을 결정하시길 권장드립니다.</t>
+  </si>
+  <si>
+    <t>qna_item_answer2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
@@ -493,7 +628,7 @@
     <col min="3" max="3" width="120.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,10 +644,55 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="64" customHeight="1">
+    <row r="2" spans="1:20" ht="64" customHeight="1">
       <c r="A2">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -526,10 +706,55 @@
       <c r="E2">
         <v>2000</v>
       </c>
+      <c r="F2">
+        <v>201000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <v>202000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>203000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>204000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2">
+        <v>205000</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="64" customHeight="1">
+    <row r="3" spans="1:20" ht="64" customHeight="1">
       <c r="A3">
-        <v>20001</v>
+        <v>200001</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -543,10 +768,55 @@
       <c r="E3">
         <v>2000</v>
       </c>
+      <c r="F3">
+        <v>201001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3">
+        <v>202001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3">
+        <v>203001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3">
+        <v>204001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3">
+        <v>205001</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="64" customHeight="1">
+    <row r="4" spans="1:20" ht="64" customHeight="1">
       <c r="A4">
-        <v>20002</v>
+        <v>200002</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -560,10 +830,55 @@
       <c r="E4">
         <v>2000</v>
       </c>
+      <c r="F4">
+        <v>201002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>202002</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4">
+        <v>203002</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4">
+        <v>204002</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4">
+        <v>205002</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="64" customHeight="1">
+    <row r="5" spans="1:20" ht="64" customHeight="1">
       <c r="A5">
-        <v>20003</v>
+        <v>200003</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -577,10 +892,55 @@
       <c r="E5">
         <v>2000</v>
       </c>
+      <c r="F5">
+        <v>201003</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>202003</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>203003</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5">
+        <v>204003</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5">
+        <v>205003</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="64" customHeight="1">
+    <row r="6" spans="1:20" ht="64" customHeight="1">
       <c r="A6">
-        <v>20004</v>
+        <v>200004</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -594,10 +954,55 @@
       <c r="E6">
         <v>2000</v>
       </c>
+      <c r="F6">
+        <v>201004</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6">
+        <v>202004</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6">
+        <v>203004</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6">
+        <v>204004</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6">
+        <v>205004</v>
+      </c>
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="64" customHeight="1">
+    <row r="7" spans="1:20" ht="64" customHeight="1">
       <c r="A7">
-        <v>20005</v>
+        <v>200005</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -611,10 +1016,55 @@
       <c r="E7">
         <v>2000</v>
       </c>
+      <c r="F7">
+        <v>201005</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>202005</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7">
+        <v>203005</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7">
+        <v>204005</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7">
+        <v>205005</v>
+      </c>
+      <c r="S7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="64" customHeight="1">
+    <row r="8" spans="1:20" ht="64" customHeight="1">
       <c r="A8">
-        <v>20006</v>
+        <v>200006</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -628,10 +1078,55 @@
       <c r="E8">
         <v>2000</v>
       </c>
+      <c r="F8">
+        <v>201006</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8">
+        <v>202006</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8">
+        <v>203006</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <v>204006</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8">
+        <v>205006</v>
+      </c>
+      <c r="S8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="64" customHeight="1">
+    <row r="9" spans="1:20" ht="64" customHeight="1">
       <c r="A9">
-        <v>20007</v>
+        <v>200007</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -645,12 +1140,57 @@
       <c r="E9">
         <v>2000</v>
       </c>
+      <c r="F9">
+        <v>201007</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9">
+        <v>202007</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9">
+        <v>203007</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9">
+        <v>204007</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9">
+        <v>205007</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="64" customHeight="1"/>
-    <row r="11" spans="1:5" ht="64" customHeight="1"/>
-    <row r="12" spans="1:5" ht="64" customHeight="1"/>
-    <row r="13" spans="1:5" ht="64" customHeight="1"/>
-    <row r="14" spans="1:5" ht="64" customHeight="1"/>
+    <row r="10" spans="1:20" ht="64" customHeight="1"/>
+    <row r="11" spans="1:20" ht="64" customHeight="1"/>
+    <row r="12" spans="1:20" ht="64" customHeight="1"/>
+    <row r="13" spans="1:20" ht="64" customHeight="1"/>
+    <row r="14" spans="1:20" ht="64" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
